--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Ptprm</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Ptprm</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H2">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I2">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J2">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="N2">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="O2">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="P2">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="Q2">
-        <v>66.00042914967699</v>
+        <v>6.929448435194667</v>
       </c>
       <c r="R2">
-        <v>594.003862347093</v>
+        <v>62.36503591675199</v>
       </c>
       <c r="S2">
-        <v>0.5315798940272499</v>
+        <v>0.1332087098768839</v>
       </c>
       <c r="T2">
-        <v>0.5315798940272499</v>
+        <v>0.1332087098768839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H3">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I3">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J3">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>58.02833699999999</v>
       </c>
       <c r="O3">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="P3">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="Q3">
-        <v>19.65226991159299</v>
+        <v>1.150147429712</v>
       </c>
       <c r="R3">
-        <v>176.870429204337</v>
+        <v>10.351326867408</v>
       </c>
       <c r="S3">
-        <v>0.1582830853009785</v>
+        <v>0.02210993511431555</v>
       </c>
       <c r="T3">
-        <v>0.1582830853009786</v>
+        <v>0.02210993511431555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H4">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I4">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J4">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="N4">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="O4">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="P4">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="Q4">
-        <v>3.115716406216333</v>
+        <v>0.2188472193084444</v>
       </c>
       <c r="R4">
-        <v>28.041447655947</v>
+        <v>1.969624973776</v>
       </c>
       <c r="S4">
-        <v>0.0250945670865164</v>
+        <v>0.004207023981325347</v>
       </c>
       <c r="T4">
-        <v>0.02509456708651641</v>
+        <v>0.004207023981325346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.016000333333333</v>
+        <v>0.05946133333333333</v>
       </c>
       <c r="H5">
-        <v>3.048001</v>
+        <v>0.178384</v>
       </c>
       <c r="I5">
-        <v>0.7163354752101707</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="J5">
-        <v>0.7163354752101708</v>
+        <v>0.1600936236816221</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="N5">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="O5">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="P5">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="Q5">
-        <v>0.1710822641293333</v>
+        <v>0.02954471125688889</v>
       </c>
       <c r="R5">
-        <v>1.539740377164</v>
+        <v>0.265902401312</v>
       </c>
       <c r="S5">
-        <v>0.001377928795425992</v>
+        <v>0.0005679547090972265</v>
       </c>
       <c r="T5">
-        <v>0.001377928795425993</v>
+        <v>0.0005679547090972265</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H6">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I6">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J6">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="N6">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="O6">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="P6">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="Q6">
-        <v>3.862669517968</v>
+        <v>25.99518189858033</v>
       </c>
       <c r="R6">
-        <v>34.764025661712</v>
+        <v>233.956637087223</v>
       </c>
       <c r="S6">
-        <v>0.03111066821046219</v>
+        <v>0.4997200969325827</v>
       </c>
       <c r="T6">
-        <v>0.03111066821046218</v>
+        <v>0.4997200969325826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H7">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I7">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J7">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>58.02833699999999</v>
       </c>
       <c r="O7">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="P7">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="Q7">
-        <v>1.150147429712</v>
+        <v>4.314671207262999</v>
       </c>
       <c r="R7">
-        <v>10.351326867408</v>
+        <v>38.83204086536699</v>
       </c>
       <c r="S7">
-        <v>0.009263504142003156</v>
+        <v>0.08294336705693302</v>
       </c>
       <c r="T7">
-        <v>0.009263504142003156</v>
+        <v>0.08294336705693302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H8">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I8">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J8">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="N8">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="O8">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="P8">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="Q8">
-        <v>0.1823470384053333</v>
+        <v>0.8209850072665554</v>
       </c>
       <c r="R8">
-        <v>1.641123345648</v>
+        <v>7.388865065398999</v>
       </c>
       <c r="S8">
-        <v>0.001468657410270253</v>
+        <v>0.01578225953609679</v>
       </c>
       <c r="T8">
-        <v>0.001468657410270253</v>
+        <v>0.01578225953609679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05946133333333333</v>
+        <v>0.2230636666666667</v>
       </c>
       <c r="H9">
-        <v>0.178384</v>
+        <v>0.669191</v>
       </c>
       <c r="I9">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="J9">
-        <v>0.04192347292861489</v>
+        <v>0.6005763528406602</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="N9">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="O9">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="P9">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="Q9">
-        <v>0.01001257499733333</v>
+        <v>0.1108342388931111</v>
       </c>
       <c r="R9">
-        <v>0.09011317497600001</v>
+        <v>0.997508150038</v>
       </c>
       <c r="S9">
-        <v>8.064316587929934E-05</v>
+        <v>0.002130629315047774</v>
       </c>
       <c r="T9">
-        <v>8.064316587929934E-05</v>
+        <v>0.002130629315047774</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H10">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I10">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J10">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>64.96103100000001</v>
+        <v>116.537051</v>
       </c>
       <c r="N10">
-        <v>194.883093</v>
+        <v>349.611153</v>
       </c>
       <c r="O10">
-        <v>0.7420823237482214</v>
+        <v>0.8320675540569679</v>
       </c>
       <c r="P10">
-        <v>0.7420823237482213</v>
+        <v>0.8320675540569678</v>
       </c>
       <c r="Q10">
-        <v>7.636450691851</v>
+        <v>10.359095000441</v>
       </c>
       <c r="R10">
-        <v>68.72805622665901</v>
+        <v>93.231855003969</v>
       </c>
       <c r="S10">
-        <v>0.06150541294682386</v>
+        <v>0.1991387472475013</v>
       </c>
       <c r="T10">
-        <v>0.06150541294682385</v>
+        <v>0.1991387472475012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H11">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I11">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J11">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>58.02833699999999</v>
       </c>
       <c r="O11">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="P11">
-        <v>0.2209622317735119</v>
+        <v>0.138106281848461</v>
       </c>
       <c r="Q11">
-        <v>2.273827490158999</v>
+        <v>1.719398968089</v>
       </c>
       <c r="R11">
-        <v>20.464447411431</v>
+        <v>15.474590712801</v>
       </c>
       <c r="S11">
-        <v>0.01831383510422044</v>
+        <v>0.03305297967721248</v>
       </c>
       <c r="T11">
-        <v>0.01831383510422044</v>
+        <v>0.03305297967721248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H12">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I12">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J12">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.066649</v>
+        <v>3.680496333333333</v>
       </c>
       <c r="N12">
-        <v>9.199947</v>
+        <v>11.041489</v>
       </c>
       <c r="O12">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="P12">
-        <v>0.0350318641962465</v>
+        <v>0.02627852305780678</v>
       </c>
       <c r="Q12">
-        <v>0.3604978787623333</v>
+        <v>0.3271629995663333</v>
       </c>
       <c r="R12">
-        <v>3.244480908861</v>
+        <v>2.944466996096999</v>
       </c>
       <c r="S12">
-        <v>0.002903517850693663</v>
+        <v>0.006289239540384644</v>
       </c>
       <c r="T12">
-        <v>0.002903517850693663</v>
+        <v>0.006289239540384643</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1204,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1175543333333333</v>
+        <v>0.088891</v>
       </c>
       <c r="H13">
-        <v>0.352663</v>
+        <v>0.266673</v>
       </c>
       <c r="I13">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="J13">
-        <v>0.08288219646058007</v>
+        <v>0.2393300234777177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.168388</v>
+        <v>0.4968726666666667</v>
       </c>
       <c r="N13">
-        <v>0.5051640000000001</v>
+        <v>1.490618</v>
       </c>
       <c r="O13">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="P13">
-        <v>0.001923580282020393</v>
+        <v>0.00354764103676432</v>
       </c>
       <c r="Q13">
-        <v>0.01979473908133333</v>
+        <v>0.04416750821266667</v>
       </c>
       <c r="R13">
-        <v>0.178152651732</v>
+        <v>0.397507573914</v>
       </c>
       <c r="S13">
-        <v>0.0001594305588421122</v>
+        <v>0.0008490570126193196</v>
       </c>
       <c r="T13">
-        <v>0.0001594305588421122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.675943</v>
-      </c>
-      <c r="I14">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J14">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>64.96103100000001</v>
-      </c>
-      <c r="N14">
-        <v>194.883093</v>
-      </c>
-      <c r="O14">
-        <v>0.7420823237482214</v>
-      </c>
-      <c r="P14">
-        <v>0.7420823237482213</v>
-      </c>
-      <c r="Q14">
-        <v>14.636651392411</v>
-      </c>
-      <c r="R14">
-        <v>131.729862531699</v>
-      </c>
-      <c r="S14">
-        <v>0.1178863485636853</v>
-      </c>
-      <c r="T14">
-        <v>0.1178863485636853</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.675943</v>
-      </c>
-      <c r="I15">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J15">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>19.342779</v>
-      </c>
-      <c r="N15">
-        <v>58.02833699999999</v>
-      </c>
-      <c r="O15">
-        <v>0.2209622317735119</v>
-      </c>
-      <c r="P15">
-        <v>0.2209622317735119</v>
-      </c>
-      <c r="Q15">
-        <v>4.358205355198999</v>
-      </c>
-      <c r="R15">
-        <v>39.223848196791</v>
-      </c>
-      <c r="S15">
-        <v>0.03510180722630975</v>
-      </c>
-      <c r="T15">
-        <v>0.03510180722630976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.675943</v>
-      </c>
-      <c r="I16">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J16">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3.066649</v>
-      </c>
-      <c r="N16">
-        <v>9.199947</v>
-      </c>
-      <c r="O16">
-        <v>0.0350318641962465</v>
-      </c>
-      <c r="P16">
-        <v>0.0350318641962465</v>
-      </c>
-      <c r="Q16">
-        <v>0.6909599750023333</v>
-      </c>
-      <c r="R16">
-        <v>6.218639775021</v>
-      </c>
-      <c r="S16">
-        <v>0.005565121848766178</v>
-      </c>
-      <c r="T16">
-        <v>0.005565121848766179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.2253143333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.675943</v>
-      </c>
-      <c r="I17">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="J17">
-        <v>0.1588588554006342</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.168388</v>
-      </c>
-      <c r="N17">
-        <v>0.5051640000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.001923580282020393</v>
-      </c>
-      <c r="P17">
-        <v>0.001923580282020393</v>
-      </c>
-      <c r="Q17">
-        <v>0.03794022996133333</v>
-      </c>
-      <c r="R17">
-        <v>0.341462069652</v>
-      </c>
-      <c r="S17">
-        <v>0.0003055777618729888</v>
-      </c>
-      <c r="T17">
-        <v>0.0003055777618729888</v>
+        <v>0.0008490570126193195</v>
       </c>
     </row>
   </sheetData>
